--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -210,6 +210,57 @@
   </si>
   <si>
     <t>&amp;=[DATA1].PHUME_TIEN</t>
+  </si>
+  <si>
+    <t>Phòng chỉ định</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].PHONGCHIDINH</t>
+  </si>
+  <si>
+    <t>Loại phẫu thuật/thủ thuật</t>
+  </si>
+  <si>
+    <t>ĐB</t>
+  </si>
+  <si>
+    <t>Loại 1</t>
+  </si>
+  <si>
+    <t>Loại 2</t>
+  </si>
+  <si>
+    <t>Loại 3</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].LOAIPTTT_DB</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].LOAIPTTT_L1</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].LOAIPTTT_L2</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].LOAIPTTT_L3</t>
+  </si>
+  <si>
+    <t>Năm sinh</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].YEAR_NAM</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].YEAR_NU</t>
+  </si>
+  <si>
+    <t>Ký nhận</t>
   </si>
 </sst>
 </file>
@@ -279,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +343,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -379,12 +436,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -407,10 +486,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,9 +495,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -430,16 +502,59 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -451,34 +566,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,299 +864,365 @@
     <col min="1" max="1" width="7.42578125" style="7" customWidth="1"/>
     <col min="2" max="3" width="12.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="15.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="16" width="14.28515625" style="9" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="27.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="27.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="9" customWidth="1"/>
-    <col min="23" max="23" width="27.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="27.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="9" customWidth="1"/>
-    <col min="27" max="29" width="19.85546875" style="15" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="15.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="19" width="14.28515625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" style="1" customWidth="1"/>
+    <col min="21" max="25" width="9.140625" style="1"/>
+    <col min="26" max="26" width="27.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="27.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="9" customWidth="1"/>
+    <col min="30" max="30" width="27.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" style="9" customWidth="1"/>
+    <col min="32" max="32" width="27.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" style="9" customWidth="1"/>
+    <col min="34" max="36" width="19.85546875" style="13" customWidth="1"/>
+    <col min="37" max="37" width="17.85546875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="E2" s="25" t="s">
+      <c r="G2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="P2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:29" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="26" t="s">
+    <row r="3" spans="1:37" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="27" t="s">
+    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:29" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:37" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="H8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="I8" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="K8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="L8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="M8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="N8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="O8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="P8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="Q8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="R8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="S8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="T8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="U8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="36" t="s">
+      <c r="Z8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="36" t="s">
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="V8" s="37"/>
-      <c r="W8" s="36" t="s">
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="36" t="s">
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="32" t="s">
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AB8" s="32" t="s">
+      <c r="AI8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AC8" s="32" t="s">
+      <c r="AJ8" s="26" t="s">
         <v>22</v>
       </c>
+      <c r="AK8" s="26" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+    <row r="9" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="G9" s="31"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="19" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="AA9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="AB9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="AC9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="AD9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="X9" s="20" t="s">
+      <c r="AE9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="AF9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Z9" s="20" t="s">
+      <c r="AG9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
     </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>3</v>
       </c>
       <c r="D10" s="5">
         <v>4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>5</v>
       </c>
       <c r="F10" s="5">
         <v>6</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="8">
         <v>7</v>
       </c>
       <c r="H10" s="5">
         <v>8</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="8">
         <v>9</v>
       </c>
       <c r="J10" s="5">
         <v>10</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="8">
         <v>11</v>
       </c>
       <c r="L10" s="5">
         <v>12</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="8">
         <v>13</v>
       </c>
       <c r="N10" s="5">
         <v>14</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="8">
         <v>15</v>
       </c>
       <c r="P10" s="5">
         <v>16</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="8">
         <v>17</v>
       </c>
       <c r="R10" s="5">
         <v>18</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="8">
         <v>19</v>
       </c>
       <c r="T10" s="5">
         <v>20</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="8">
         <v>21</v>
       </c>
       <c r="V10" s="5">
         <v>22</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="8">
         <v>23</v>
       </c>
       <c r="X10" s="5">
         <v>24</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="8">
         <v>25</v>
       </c>
       <c r="Z10" s="5">
         <v>26</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AA10" s="8">
         <v>27</v>
       </c>
       <c r="AB10" s="5">
         <v>28</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10" s="8">
         <v>29</v>
       </c>
+      <c r="AD10" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>31</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>32</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>33</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>35</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>36</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -1079,168 +1236,214 @@
         <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="I11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="K11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="P11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="R11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="S11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="U11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="AA11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="AC11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="AE11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AG11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AH11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AI11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AC11" s="16" t="s">
+      <c r="AJ11" s="14" t="s">
         <v>55</v>
       </c>
+      <c r="AK11" s="14"/>
     </row>
-    <row r="12" spans="1:29" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:37" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12">
-        <f>SUM(R11:R11)</f>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19">
+        <f>COUNTIF(U11:U11,"=x")</f>
         <v>0</v>
       </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12">
-        <f>SUM(T11:T11)</f>
+      <c r="V12" s="19">
+        <f t="shared" ref="V12:X12" si="0">COUNTIF(V11:V11,"=x")</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12">
-        <f>SUM(V11:V11)</f>
+      <c r="W12" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12">
-        <f>SUM(X11:X11)</f>
+      <c r="X12" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12">
-        <f>SUM(Z11:Z11)</f>
+      <c r="Y12" s="19">
+        <f>SUM(Y11:Y11)</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19">
+        <f>SUM(AA11:AA11)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19">
+        <f>SUM(AC11:AC11)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19">
+        <f>SUM(AE11:AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19">
+        <f>SUM(AG11:AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Z15" s="21" t="s">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AG15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="Q8:Q9"/>
+  <mergeCells count="34">
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="AK8:AK9"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="AG15:AI15"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G4:N4"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -261,6 +261,24 @@
   </si>
   <si>
     <t>Ký nhận</t>
+  </si>
+  <si>
+    <t>Chi phí khác</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Lãi</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHIPHIKHAC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].THANHTIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].LAI</t>
   </si>
 </sst>
 </file>
@@ -330,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +367,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -463,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -512,37 +536,22 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -572,6 +581,23 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -853,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,347 +898,364 @@
     <col min="12" max="12" width="22.28515625" style="1" customWidth="1"/>
     <col min="13" max="14" width="15.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="33.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="19" width="14.28515625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="16.5703125" style="1" customWidth="1"/>
-    <col min="21" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="27.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="27.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" style="9" customWidth="1"/>
-    <col min="30" max="30" width="27.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" style="9" customWidth="1"/>
-    <col min="32" max="32" width="27.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" style="9" customWidth="1"/>
-    <col min="34" max="36" width="19.85546875" style="13" customWidth="1"/>
-    <col min="37" max="37" width="17.85546875" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="15.42578125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="21" width="14.28515625" style="9" customWidth="1"/>
+    <col min="22" max="23" width="19.140625" style="9" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="1" customWidth="1"/>
+    <col min="25" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="27.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" style="9" customWidth="1"/>
+    <col min="31" max="31" width="27.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" style="9" customWidth="1"/>
+    <col min="33" max="33" width="27.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15.140625" style="9" customWidth="1"/>
+    <col min="35" max="35" width="27.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" style="9" customWidth="1"/>
+    <col min="37" max="39" width="19.85546875" style="13" customWidth="1"/>
+    <col min="40" max="40" width="17.85546875" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="P2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="Q2" s="10"/>
       <c r="S2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
     </row>
-    <row r="3" spans="1:37" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="38" t="s">
+    <row r="3" spans="1:40" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
-    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="39" t="s">
+    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:37" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:40" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="R8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="S8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="T8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="U8" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="32" t="s">
+      <c r="Y8" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="28" t="s">
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="28" t="s">
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="28" t="s">
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="28" t="s">
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="26" t="s">
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AI8" s="26" t="s">
+      <c r="AL8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AJ8" s="26" t="s">
+      <c r="AM8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AK8" s="26" t="s">
+      <c r="AN8" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+    <row r="9" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="18" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="Z9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="AA9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="X9" s="18" t="s">
+      <c r="AB9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="16" t="s">
+      <c r="AC9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AD9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AE9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="17" t="s">
+      <c r="AF9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="16" t="s">
+      <c r="AG9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AE9" s="17" t="s">
+      <c r="AH9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="16" t="s">
+      <c r="AI9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AG9" s="17" t="s">
+      <c r="AJ9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
     </row>
-    <row r="10" spans="1:37" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:40" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5">
         <v>4</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>5</v>
       </c>
       <c r="F10" s="5">
         <v>6</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="5">
         <v>7</v>
       </c>
       <c r="H10" s="5">
         <v>8</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="5">
         <v>9</v>
       </c>
       <c r="J10" s="5">
         <v>10</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="5">
         <v>11</v>
       </c>
       <c r="L10" s="5">
         <v>12</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="5">
         <v>13</v>
       </c>
       <c r="N10" s="5">
         <v>14</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="5">
         <v>15</v>
       </c>
       <c r="P10" s="5">
         <v>16</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="5">
         <v>17</v>
       </c>
       <c r="R10" s="5">
         <v>18</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="5">
         <v>19</v>
       </c>
       <c r="T10" s="5">
         <v>20</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="5">
         <v>21</v>
       </c>
       <c r="V10" s="5">
         <v>22</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="5">
         <v>23</v>
       </c>
       <c r="X10" s="5">
         <v>24</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="5">
         <v>25</v>
       </c>
       <c r="Z10" s="5">
         <v>26</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA10" s="5">
         <v>27</v>
       </c>
       <c r="AB10" s="5">
         <v>28</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="5">
         <v>29</v>
       </c>
       <c r="AD10" s="5">
         <v>30</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE10" s="5">
         <v>31</v>
       </c>
       <c r="AF10" s="5">
         <v>32</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AG10" s="5">
         <v>33</v>
       </c>
       <c r="AH10" s="5">
         <v>34</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AI10" s="5">
         <v>35</v>
       </c>
       <c r="AJ10" s="5">
@@ -1221,8 +1264,17 @@
       <c r="AK10" s="5">
         <v>37</v>
       </c>
+      <c r="AL10" s="5">
+        <v>38</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>39</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -1268,78 +1320,87 @@
       <c r="O11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="S11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="T11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AA11" s="11" t="s">
+      <c r="AD11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AC11" s="11" t="s">
+      <c r="AF11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AH11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AJ11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AH11" s="14" t="s">
+      <c r="AK11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AI11" s="14" t="s">
+      <c r="AL11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AJ11" s="14" t="s">
+      <c r="AM11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AK11" s="14"/>
+      <c r="AN11" s="14"/>
     </row>
-    <row r="12" spans="1:37" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:40" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
@@ -1351,70 +1412,84 @@
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="P12" s="19">
+        <f>SUM(P11:P11)</f>
+        <v>0</v>
+      </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19">
-        <f>COUNTIF(U11:U11,"=x")</f>
+        <f t="shared" ref="U12:W12" si="0">SUM(U11:U11)</f>
         <v>0</v>
       </c>
       <c r="V12" s="19">
-        <f t="shared" ref="V12:X12" si="0">COUNTIF(V11:V11,"=x")</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X12" s="19">
+      <c r="W12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="X12" s="19"/>
       <c r="Y12" s="19">
-        <f>SUM(Y11:Y11)</f>
+        <f>COUNTIF(Y11:Y11,"=x")</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="19"/>
+      <c r="Z12" s="19">
+        <f t="shared" ref="Z12:AB12" si="1">COUNTIF(Z11:Z11,"=x")</f>
+        <v>0</v>
+      </c>
       <c r="AA12" s="19">
-        <f>SUM(AA11:AA11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19">
-        <f>SUM(AC11:AC11)</f>
+      <c r="AB12" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19">
-        <f>SUM(AE11:AE11)</f>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19">
+        <f>SUM(AD11:AD11)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19">
-        <f>SUM(AG11:AG11)</f>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19">
+        <f>SUM(AF11:AF11)</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19">
+        <f>SUM(AH11:AH11)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19">
+        <f>SUM(AJ11:AJ11)</f>
+        <v>0</v>
+      </c>
       <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AG15" s="33" t="s">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="AK8:AK9"/>
+  <mergeCells count="37">
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="AG15:AI15"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="G3:N3"/>
@@ -1429,21 +1504,22 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="AN8:AN9"/>
     <mergeCell ref="S8:S9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="AJ15:AL15"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="Y8:AB8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>&amp;=[DATA1].LAI</t>
+  </si>
+  <si>
+    <t>Mời gây mê</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MOIGAYME_TENBS</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MOIGAYME_TIEN</t>
+  </si>
+  <si>
+    <t>Mời mổ chính</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MOIMOCHINH_TENBS</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MOIMOCHINH_TIEN</t>
   </si>
 </sst>
 </file>
@@ -536,57 +554,59 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,8 +616,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -879,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:AN10"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AR16" sqref="AR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,36 +925,40 @@
     <col min="25" max="28" width="9.140625" style="1"/>
     <col min="29" max="29" width="27.7109375" style="1" customWidth="1"/>
     <col min="30" max="30" width="15.140625" style="9" customWidth="1"/>
-    <col min="31" max="31" width="27.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="27.85546875" style="9" customWidth="1"/>
     <col min="32" max="32" width="15.140625" style="9" customWidth="1"/>
-    <col min="33" max="33" width="27.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="27.85546875" style="9" customWidth="1"/>
     <col min="34" max="34" width="15.140625" style="9" customWidth="1"/>
     <col min="35" max="35" width="27.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="15.140625" style="9" customWidth="1"/>
-    <col min="37" max="39" width="19.85546875" style="13" customWidth="1"/>
-    <col min="40" max="40" width="17.85546875" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="37" max="37" width="27.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="15.140625" style="9" customWidth="1"/>
+    <col min="39" max="39" width="27.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="15.140625" style="9" customWidth="1"/>
+    <col min="41" max="43" width="19.85546875" style="13" customWidth="1"/>
+    <col min="44" max="44" width="17.85546875" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
       <c r="Q2" s="10"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
@@ -944,173 +966,185 @@
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
       <c r="AJ2" s="10"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
+      <c r="AL2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
     </row>
-    <row r="3" spans="1:40" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="33" t="s">
+    <row r="3" spans="1:44" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
     </row>
-    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="34" t="s">
+    <row r="4" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
-    <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:40" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="5" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:44" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="T8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U8" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="W8" s="26" t="s">
+      <c r="W8" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="X8" s="22" t="s">
+      <c r="X8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="41" t="s">
+      <c r="Y8" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="39" t="s">
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="39" t="s">
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="39" t="s">
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="39" t="s">
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="24" t="s">
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AL8" s="24" t="s">
+      <c r="AP8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM8" s="24" t="s">
+      <c r="AQ8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AN8" s="24" t="s">
+      <c r="AR8" s="36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+    <row r="9" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="23"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="27"/>
       <c r="Y9" s="18" t="s">
         <v>65</v>
       </c>
@@ -1147,12 +1181,24 @@
       <c r="AJ9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
+      <c r="AK9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
     </row>
-    <row r="10" spans="1:40" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1273,8 +1319,20 @@
       <c r="AN10" s="5">
         <v>40</v>
       </c>
+      <c r="AO10" s="5">
+        <v>41</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>42</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>43</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -1341,7 +1399,7 @@
       <c r="V11" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="W11" s="42" t="s">
+      <c r="W11" s="22" t="s">
         <v>84</v>
       </c>
       <c r="X11" s="2" t="s">
@@ -1366,41 +1424,53 @@
         <v>48</v>
       </c>
       <c r="AE11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AJ11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH11" s="11" t="s">
+      <c r="AL11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AM11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ11" s="11" t="s">
+      <c r="AN11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AK11" s="14" t="s">
+      <c r="AO11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AL11" s="14" t="s">
+      <c r="AP11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AM11" s="14" t="s">
+      <c r="AQ11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AN11" s="14"/>
+      <c r="AR11" s="14"/>
     </row>
-    <row r="12" spans="1:40" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:44" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
@@ -1428,7 +1498,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W12" s="43">
+      <c r="W12" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1469,27 +1539,46 @@
         <f>SUM(AJ11:AJ11)</f>
         <v>0</v>
       </c>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19">
+        <f>SUM(AL11:AL11)</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19">
+        <f>SUM(AN11:AN11)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AJ15" s="28" t="s">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AN15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="U8:U9"/>
+  <mergeCells count="39">
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="G3:N3"/>
@@ -1506,20 +1595,13 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
@@ -203,15 +203,6 @@
     <t>BÁO CÁO PHẪU THUẬT KHOA MẮT</t>
   </si>
   <si>
-    <t>Phụ mê</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].PHUME_TENBS</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].PHUME_TIEN</t>
-  </si>
-  <si>
     <t>Phòng chỉ định</t>
   </si>
   <si>
@@ -297,6 +288,15 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MOIMOCHINH_TIEN</t>
+  </si>
+  <si>
+    <t>Gây mê</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GAYME_TENBS</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GAYME_TIEN</t>
   </si>
 </sst>
 </file>
@@ -556,6 +556,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -568,6 +574,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,28 +610,10 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,16 +949,16 @@
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="Q2" s="10"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
@@ -978,184 +978,184 @@
       <c r="AQ2" s="13"/>
     </row>
     <row r="3" spans="1:44" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:44" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="26" t="s">
+      <c r="E8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="V8" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="W8" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="X8" s="26" t="s">
+      <c r="U8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="41" t="s">
+      <c r="Y8" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="41" t="s">
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="41" t="s">
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="41" t="s">
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="36" t="s">
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AP8" s="36" t="s">
+      <c r="AP8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AQ8" s="36" t="s">
+      <c r="AQ8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AR8" s="36" t="s">
-        <v>78</v>
+      <c r="AR8" s="24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="27"/>
+        <v>72</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="29"/>
       <c r="Y9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB9" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB9" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="AC9" s="16" t="s">
         <v>23</v>
@@ -1193,10 +1193,10 @@
       <c r="AN9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
     </row>
     <row r="10" spans="1:44" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1346,10 +1346,10 @@
         <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>34</v>
@@ -1358,7 +1358,7 @@
         <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>36</v>
@@ -1394,28 +1394,28 @@
         <v>44</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W11" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Y11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB11" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="AC11" s="2" t="s">
         <v>47</v>
@@ -1424,22 +1424,22 @@
         <v>48</v>
       </c>
       <c r="AE11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AH11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AG11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="AI11" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>49</v>
@@ -1465,12 +1465,12 @@
       <c r="AR11" s="14"/>
     </row>
     <row r="12" spans="1:44" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
@@ -1555,14 +1555,37 @@
       <c r="AR12" s="21"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AN15" s="40" t="s">
+      <c r="AN15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
     <mergeCell ref="AR8:AR9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="I8:I9"/>
@@ -1579,29 +1602,6 @@
     <mergeCell ref="Y8:AB8"/>
     <mergeCell ref="AG8:AH8"/>
     <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].GAYME_TIEN</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DIACHI</t>
   </si>
 </sst>
 </file>
@@ -556,22 +562,52 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -584,36 +620,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -897,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AS15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:AS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,295 +916,303 @@
     <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="33.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="15.42578125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="21" width="14.28515625" style="9" customWidth="1"/>
-    <col min="22" max="23" width="19.140625" style="9" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" style="1" customWidth="1"/>
-    <col min="25" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="27.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" style="9" customWidth="1"/>
-    <col min="31" max="31" width="27.85546875" style="9" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" style="9" customWidth="1"/>
-    <col min="33" max="33" width="27.85546875" style="9" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" style="9" customWidth="1"/>
-    <col min="35" max="35" width="27.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" style="9" customWidth="1"/>
-    <col min="37" max="37" width="27.7109375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="15.140625" style="9" customWidth="1"/>
-    <col min="39" max="39" width="27.7109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="15.140625" style="9" customWidth="1"/>
-    <col min="41" max="43" width="19.85546875" style="13" customWidth="1"/>
-    <col min="44" max="44" width="17.85546875" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="46" style="1" customWidth="1"/>
+    <col min="9" max="10" width="19.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="15.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="15.42578125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="22" width="14.28515625" style="9" customWidth="1"/>
+    <col min="23" max="24" width="19.140625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="16.5703125" style="1" customWidth="1"/>
+    <col min="26" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="27.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" style="9" customWidth="1"/>
+    <col min="32" max="32" width="27.85546875" style="9" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" style="9" customWidth="1"/>
+    <col min="34" max="34" width="27.85546875" style="9" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" style="9" customWidth="1"/>
+    <col min="36" max="36" width="27.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" style="9" customWidth="1"/>
+    <col min="38" max="38" width="27.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="15.140625" style="9" customWidth="1"/>
+    <col min="40" max="40" width="27.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="15.140625" style="9" customWidth="1"/>
+    <col min="42" max="44" width="19.85546875" style="13" customWidth="1"/>
+    <col min="45" max="45" width="17.85546875" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="R2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
-      <c r="AD2" s="10"/>
+      <c r="X2" s="10"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="13"/>
+      <c r="AI2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AO2" s="10"/>
       <c r="AP2" s="13"/>
       <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
     </row>
-    <row r="3" spans="1:44" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="38" t="s">
+    <row r="3" spans="1:45" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="39" t="s">
+    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
     </row>
-    <row r="5" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:44" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:45" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="28" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="J8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="K8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="L8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="M8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="N8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="O8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="P8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="Q8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="R8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="S8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="T8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="U8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="V8" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="W8" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="W8" s="26" t="s">
+      <c r="X8" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="X8" s="28" t="s">
+      <c r="Y8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="33" t="s">
+      <c r="Z8" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="31" t="s">
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="31" t="s">
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="31" t="s">
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="31" t="s">
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="31" t="s">
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="31" t="s">
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="24" t="s">
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AP8" s="24" t="s">
+      <c r="AQ8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AQ8" s="24" t="s">
+      <c r="AR8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AR8" s="24" t="s">
+      <c r="AS8" s="36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+    <row r="9" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
-      <c r="R9" s="29"/>
+      <c r="R9" s="25"/>
       <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="18" t="s">
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="Z9" s="18" t="s">
+      <c r="AA9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AA9" s="18" t="s">
+      <c r="AB9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AB9" s="18" t="s">
+      <c r="AC9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AC9" s="16" t="s">
+      <c r="AD9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AD9" s="17" t="s">
+      <c r="AE9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AF9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AF9" s="17" t="s">
+      <c r="AG9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AG9" s="16" t="s">
+      <c r="AH9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="17" t="s">
+      <c r="AI9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AI9" s="16" t="s">
+      <c r="AJ9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="17" t="s">
+      <c r="AK9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="16" t="s">
+      <c r="AL9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AL9" s="17" t="s">
+      <c r="AM9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AM9" s="16" t="s">
+      <c r="AN9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AN9" s="17" t="s">
+      <c r="AO9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
     </row>
-    <row r="10" spans="1:44" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1331,8 +1345,11 @@
       <c r="AR10" s="5">
         <v>44</v>
       </c>
+      <c r="AS10" s="5">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -1355,253 +1372,258 @@
         <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="R11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="T11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="U11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="W11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="W11" s="22" t="s">
+      <c r="X11" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="11" t="s">
+      <c r="AE11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AG11" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AH11" s="11" t="s">
+      <c r="AI11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AJ11" s="11" t="s">
+      <c r="AK11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AL11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AL11" s="11" t="s">
+      <c r="AM11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AN11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AN11" s="11" t="s">
+      <c r="AO11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AO11" s="14" t="s">
+      <c r="AP11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AP11" s="14" t="s">
+      <c r="AQ11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AQ11" s="14" t="s">
+      <c r="AR11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
     </row>
-    <row r="12" spans="1:44" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:45" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="19">
-        <f>SUM(P11:P11)</f>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19">
+        <f>SUM(Q11:Q11)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
-      <c r="U12" s="19">
-        <f t="shared" ref="U12:W12" si="0">SUM(U11:U11)</f>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19">
+        <f t="shared" ref="V12:X12" si="0">SUM(V11:V11)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="19">
+      <c r="W12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W12" s="23">
+      <c r="X12" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19">
-        <f>COUNTIF(Y11:Y11,"=x")</f>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19">
+        <f>COUNTIF(Z11:Z11,"=x")</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="19">
-        <f t="shared" ref="Z12:AB12" si="1">COUNTIF(Z11:Z11,"=x")</f>
-        <v>0</v>
-      </c>
       <c r="AA12" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AA12:AC12" si="1">COUNTIF(AA11:AA11,"=x")</f>
         <v>0</v>
       </c>
       <c r="AB12" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19">
-        <f>SUM(AD11:AD11)</f>
+      <c r="AC12" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19">
-        <f>SUM(AF11:AF11)</f>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19">
+        <f>SUM(AE11:AE11)</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19">
-        <f>SUM(AH11:AH11)</f>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19">
+        <f>SUM(AG11:AG11)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19">
-        <f>SUM(AJ11:AJ11)</f>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19">
+        <f>SUM(AI11:AI11)</f>
         <v>0</v>
       </c>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19">
-        <f>SUM(AL11:AL11)</f>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19">
+        <f>SUM(AK11:AK11)</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19">
-        <f>SUM(AN11:AN11)</f>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19">
+        <f>SUM(AM11:AM11)</f>
         <v>0</v>
       </c>
-      <c r="AO12" s="21"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19">
+        <f>SUM(AO11:AO11)</f>
+        <v>0</v>
+      </c>
       <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
       <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AN15" s="30" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AO15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="P8:P9"/>
+  <mergeCells count="40">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="AO15:AQ15"/>
     <mergeCell ref="U8:U9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="G4:O4"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="O8:O9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="V8:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].DIACHI</t>
+  </si>
+  <si>
+    <t>Người nhập</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].NGUOINHAPTHUCHIEN</t>
   </si>
 </sst>
 </file>
@@ -511,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -562,16 +568,34 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,29 +622,14 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS15"/>
+  <dimension ref="A1:AT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:AS10"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AT15" sqref="AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,30 +952,31 @@
     <col min="40" max="40" width="27.7109375" style="1" customWidth="1"/>
     <col min="41" max="41" width="15.140625" style="9" customWidth="1"/>
     <col min="42" max="44" width="19.85546875" style="13" customWidth="1"/>
-    <col min="45" max="45" width="17.85546875" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="1"/>
+    <col min="45" max="45" width="29.5703125" style="13" customWidth="1"/>
+    <col min="46" max="46" width="17.85546875" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
       <c r="R2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -984,181 +994,185 @@
       <c r="AP2" s="13"/>
       <c r="AQ2" s="13"/>
       <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
     </row>
-    <row r="3" spans="1:45" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="32" t="s">
+    <row r="3" spans="1:46" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="33" t="s">
+    <row r="4" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
     </row>
-    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:45" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="5" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:46" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="W8" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="24" t="s">
+      <c r="X8" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="Y8" s="26" t="s">
+      <c r="Y8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Z8" s="43" t="s">
+      <c r="Z8" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="41" t="s">
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="41" t="s">
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="41" t="s">
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="41" t="s">
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="41" t="s">
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="41" t="s">
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="36" t="s">
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AQ8" s="36" t="s">
+      <c r="AQ8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="36" t="s">
+      <c r="AR8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AS8" s="36" t="s">
+      <c r="AS8" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT8" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+    <row r="9" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="25"/>
       <c r="Z9" s="18" t="s">
         <v>62</v>
       </c>
@@ -1207,12 +1221,13 @@
       <c r="AO9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27"/>
     </row>
-    <row r="10" spans="1:45" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1348,8 +1363,11 @@
       <c r="AS10" s="5">
         <v>45</v>
       </c>
+      <c r="AT10" s="5">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -1482,15 +1500,18 @@
       <c r="AR11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AS11" s="14"/>
+      <c r="AS11" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT11" s="14"/>
     </row>
-    <row r="12" spans="1:45" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:46" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
@@ -1574,32 +1595,26 @@
       <c r="AQ12" s="21"/>
       <c r="AR12" s="21"/>
       <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AO15" s="40" t="s">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AO15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="40"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="H8:H9"/>
+  <mergeCells count="41">
     <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="AO15:AQ15"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="V8:V9"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="G2:O2"/>
@@ -1616,14 +1631,22 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="AO15:AQ15"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="AH8:AI8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
@@ -101,9 +101,6 @@
     <t>Tiền</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -309,6 +306,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGUOINHAPTHUCHIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -568,68 +568,68 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AT15" sqref="AT15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,24 +959,24 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="G2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
       <c r="R2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -997,126 +997,126 @@
       <c r="AS2" s="13"/>
     </row>
     <row r="3" spans="1:46" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="G3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
+      <c r="G4" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:46" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="24" t="s">
+      <c r="E8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="24" t="s">
+      <c r="H8" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="40" t="s">
+      <c r="J8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="24" t="s">
+      <c r="L8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="28" t="s">
+      <c r="T8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="28" t="s">
+      <c r="U8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="28" t="s">
+      <c r="V8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="28" t="s">
+      <c r="X8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8" s="24" t="s">
+      <c r="Y8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Z8" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
+      <c r="Z8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
       <c r="AD8" s="31" t="s">
         <v>17</v>
       </c>
       <c r="AE8" s="32"/>
       <c r="AF8" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG8" s="32"/>
       <c r="AH8" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI8" s="32"/>
       <c r="AJ8" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK8" s="32"/>
       <c r="AL8" s="31" t="s">
@@ -1127,63 +1127,63 @@
         <v>19</v>
       </c>
       <c r="AO8" s="32"/>
-      <c r="AP8" s="26" t="s">
+      <c r="AP8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AQ8" s="26" t="s">
+      <c r="AQ8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="26" t="s">
+      <c r="AR8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AS8" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT8" s="26" t="s">
-        <v>75</v>
+      <c r="AS8" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT8" s="25" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="25"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="28"/>
       <c r="Z9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="18" t="s">
+      <c r="AB9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AB9" s="18" t="s">
+      <c r="AC9" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AC9" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AD9" s="16" t="s">
         <v>23</v>
@@ -1221,11 +1221,11 @@
       <c r="AO9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1369,149 +1369,149 @@
     </row>
     <row r="11" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="S11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AE11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AF11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AF11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AM11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AM11" s="11" t="s">
+      <c r="AN11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AO11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AO11" s="11" t="s">
+      <c r="AP11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AP11" s="14" t="s">
+      <c r="AQ11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AQ11" s="14" t="s">
+      <c r="AR11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AR11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS11" s="44" t="s">
-        <v>94</v>
+      <c r="AS11" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="AT11" s="14"/>
     </row>
     <row r="12" spans="1:46" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
@@ -1598,24 +1598,29 @@
       <c r="AT12" s="21"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="AO15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
+      <c r="AO15" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="AO15:AQ15"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="G3:O3"/>
@@ -1632,21 +1637,16 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="AO15:AQ15"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="AF8:AG8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_MAT.xlsx
@@ -577,17 +577,20 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -595,6 +598,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,12 +629,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AG1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,17 +966,17 @@
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
       <c r="R2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -997,136 +997,136 @@
       <c r="AS2" s="13"/>
     </row>
     <row r="3" spans="1:46" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:46" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="27" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="41" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="R8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="U8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="29" t="s">
+      <c r="V8" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="W8" s="29" t="s">
+      <c r="W8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="X8" s="29" t="s">
+      <c r="X8" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="Y8" s="27" t="s">
+      <c r="Y8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z8" s="44" t="s">
+      <c r="Z8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="31" t="s">
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="31" t="s">
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="31" t="s">
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="31" t="s">
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="31" t="s">
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="31" t="s">
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AO8" s="32"/>
+      <c r="AO8" s="33"/>
       <c r="AP8" s="25" t="s">
         <v>20</v>
       </c>
@@ -1144,35 +1144,35 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="40"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="26"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="28"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="30"/>
       <c r="Z9" s="18" t="s">
         <v>61</v>
       </c>
@@ -1506,12 +1506,12 @@
       <c r="AT11" s="14"/>
     </row>
     <row r="12" spans="1:46" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
@@ -1598,29 +1598,23 @@
       <c r="AT12" s="21"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="AO15" s="43" t="s">
+      <c r="AO15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AP15" s="43"/>
-      <c r="AQ15" s="43"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="AO15:AQ15"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="V8:V9"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="G3:O3"/>
@@ -1637,18 +1631,27 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="H8:H9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="AO15:AQ15"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="AF8:AG8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="24" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;CTrang &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>